--- a/import-to-prod/vista/Vista Ford-chemical-inventory.xlsx
+++ b/import-to-prod/vista/Vista Ford-chemical-inventory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C78908-2594-534A-A36B-388AB91D3859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323DAF6-3BFB-B942-BF54-D0A4EEC7DF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M33"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2816,6 +2816,9 @@
       </c>
       <c r="J32" t="s">
         <v>56</v>
+      </c>
+      <c r="K32">
+        <v>365</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
